--- a/results/video1 - fullvideo/real_speed_lane3.xlsx
+++ b/results/video1 - fullvideo/real_speed_lane3.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="real_speed_lane3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Carro 1</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>Carro 41</t>
+  </si>
+  <si>
+    <t>verdes</t>
+  </si>
+  <si>
+    <t>amarelo</t>
+  </si>
+  <si>
+    <t>laranja</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Descartaveis</t>
   </si>
 </sst>
 </file>
@@ -673,27 +688,7 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -980,15 +975,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +1000,20 @@
         <f t="shared" ref="D1" si="0">ABS(B1-C1)</f>
         <v>8.6709999999999994</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1018,8 +1028,20 @@
         <v>0.32099999999999795</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1033,8 +1055,11 @@
         <f>ABS(B3-C3)</f>
         <v>2.4030000000000058</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1045,11 +1070,11 @@
         <v>48.247999999999998</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D41" si="1">ABS(B4-C4)</f>
+        <f t="shared" ref="D4:D41" si="1">ABS(B4-C4)</f>
         <v>0.64200000000000301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1089,7 @@
         <v>0.32600000000000051</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1104,7 @@
         <v>2.0259999999999962</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1119,7 @@
         <v>2.4170000000000016</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1134,7 @@
         <v>0.91799999999999926</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>52.39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1161,7 @@
         <v>3.5330000000000013</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1148,7 +1173,7 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1185,7 @@
         <v>22.13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1200,7 @@
         <v>5.8070000000000022</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1212,7 @@
         <v>31.31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1227,7 @@
         <v>10.467000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1582,7 +1607,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
